--- a/biology/Zoologie/Conservation_des_espèces/Conservation_des_espèces.xlsx
+++ b/biology/Zoologie/Conservation_des_espèces/Conservation_des_espèces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conservation_des_esp%C3%A8ces</t>
+          <t>Conservation_des_espèces</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La conservation des espèces, aussi appelée conservation de la vie sauvage (de l'anglais wildlife conservation) ou conservation de la faune et de la flore, est la pratique de la protection des espèces animales et végétales sauvages. La faune et la flore jouent un rôle important dans l'équilibre entre l'environnement et la stabilité des différents processus naturels. L'objectif de la conservation de la faune et de la flore est de veiller à ce que la nature appartienne aux générations futures et à reconnaître l'importance de la vie sauvage et de la naturalité pour les humains et les autres espèces[1]. Beaucoup de pays ont des organismes gouvernementaux et des ONG voués à la conservation de la faune et de la flore, qui aident à mettre en œuvre des politiques visant à protéger la vie sauvage. De nombreuses organisations à but non lucratif indépendantes interviennent également pour promouvoir diverses actions de conservation de la faune et de la flore[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La conservation des espèces, aussi appelée conservation de la vie sauvage (de l'anglais wildlife conservation) ou conservation de la faune et de la flore, est la pratique de la protection des espèces animales et végétales sauvages. La faune et la flore jouent un rôle important dans l'équilibre entre l'environnement et la stabilité des différents processus naturels. L'objectif de la conservation de la faune et de la flore est de veiller à ce que la nature appartienne aux générations futures et à reconnaître l'importance de la vie sauvage et de la naturalité pour les humains et les autres espèces. Beaucoup de pays ont des organismes gouvernementaux et des ONG voués à la conservation de la faune et de la flore, qui aident à mettre en œuvre des politiques visant à protéger la vie sauvage. De nombreuses organisations à but non lucratif indépendantes interviennent également pour promouvoir diverses actions de conservation de la faune et de la flore.
 En réponse à la pression croissante des humains sur les milieux naturels qu'ils fréquentent, le Programme Sans trace, initialement mis au point aux États-Unis sur la base de la recherche, est maintenant enseigné partout dans le monde afin que les randonneurs et randonneuses ainsi que le personnel d'organismes œuvrant dans le domaine du plein air puissent savoir comment y limiter leurs impacts négatifs.
-Selon la National Wildlife Federation, la vie sauvage aux États-Unis reçoit une majorité de son financement grâce à des crédits du budget fédéral, des subventions annuelles fédérales et étatiques et des efforts financiers provenant de programmes tels que le Programme de réserves de conservation (CRP - Conservation Reserve Program (en)), le Programme de réserves de zones humides (WRP - Wetlands Reserve Program (en)) et le Programme d'incitations sur les habitats de vie sauvage (WHIP - Wildlife Habitat Incentives Program (en))[3],[4]. De plus, un montant important de financement provient de l'État grâce à la vente de licences de chasse / pêche, d'étiquettes (« tags » d'identification pour le gibier), de timbres et au prélèvement de taxes d'accise provenant de l'achat d'équipement de chasse et de munitions, qui recueille environ 200 millions de dollars par an[5].
-La conservation de la faune et de la flore est devenue une pratique de plus en plus importante en raison des effets négatifs de l'activité humaine sur la vie sauvage. Une espèce en voie d'extinction est définie comme une espèce vivante qui risque de disparaître du fait de sa population très faible ou en déclin sur l’ensemble de son aire de distribution géographique, ou parce qu'elle est menacée par différents paramètres environnementaux ou anthropiques sous-jacents[6].
+Selon la National Wildlife Federation, la vie sauvage aux États-Unis reçoit une majorité de son financement grâce à des crédits du budget fédéral, des subventions annuelles fédérales et étatiques et des efforts financiers provenant de programmes tels que le Programme de réserves de conservation (CRP - Conservation Reserve Program (en)), le Programme de réserves de zones humides (WRP - Wetlands Reserve Program (en)) et le Programme d'incitations sur les habitats de vie sauvage (WHIP - Wildlife Habitat Incentives Program (en)),. De plus, un montant important de financement provient de l'État grâce à la vente de licences de chasse / pêche, d'étiquettes (« tags » d'identification pour le gibier), de timbres et au prélèvement de taxes d'accise provenant de l'achat d'équipement de chasse et de munitions, qui recueille environ 200 millions de dollars par an.
+La conservation de la faune et de la flore est devenue une pratique de plus en plus importante en raison des effets négatifs de l'activité humaine sur la vie sauvage. Une espèce en voie d'extinction est définie comme une espèce vivante qui risque de disparaître du fait de sa population très faible ou en déclin sur l’ensemble de son aire de distribution géographique, ou parce qu'elle est menacée par différents paramètres environnementaux ou anthropiques sous-jacents.
 </t>
         </is>
       </c>
